--- a/data/trans_dic/P28$otro_2012-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P28$otro_2012-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,61; 17,89</t>
+          <t>9,31; 17,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,05; 13,49</t>
+          <t>6,21; 13,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,83; 14,56</t>
+          <t>8,76; 14,57</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,68; 11,88</t>
+          <t>6,71; 11,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,6; 12,12</t>
+          <t>6,74; 12,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,21; 11,1</t>
+          <t>7,42; 11,12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,01; 18,36</t>
+          <t>10,49; 17,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 11,16</t>
+          <t>4,9; 10,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,13; 13,05</t>
+          <t>8,56; 13,18</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,1; 10,3</t>
+          <t>3,99; 10,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,9; 5,84</t>
+          <t>2,13; 6,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 7,35</t>
+          <t>3,34; 7,21</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,05; 7,85</t>
+          <t>1,63; 7,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 6,48</t>
+          <t>1,42; 6,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,23; 6,02</t>
+          <t>2,25; 6,18</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,09; 20,51</t>
+          <t>10,9; 20,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,24; 14,23</t>
+          <t>6,24; 13,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,89; 15,57</t>
+          <t>9,7; 15,36</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,66; 15,95</t>
+          <t>10,73; 16,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,68; 14,87</t>
+          <t>9,59; 14,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,7; 14,65</t>
+          <t>10,82; 14,63</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,18; 10,26</t>
+          <t>6,07; 10,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,81; 11,0</t>
+          <t>6,95; 11,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,12; 10,04</t>
+          <t>6,98; 10,11</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>9,18; 11,55</t>
+          <t>9,32; 11,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,62; 9,66</t>
+          <t>7,57; 9,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,74; 10,2</t>
+          <t>8,75; 10,23</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, fumaba otra persona diferente a sus padres en el ambiente donde se crió</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>37905</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25450</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>63355</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>26364; 50438</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17005; 37187</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>48775; 81121</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>44217</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>46916</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>91133</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>33166; 58269</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>34407; 62079</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>74522; 111695</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>43740</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>24659</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>68400</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>33382; 56421</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15928; 35570</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>55073; 84810</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>23305</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>13250</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>36555</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>14106; 36039</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7809; 22020</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>24075; 51982</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>8190</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6688</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>14878</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3136; 15129</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2853; 12691</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8861; 24303</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>40398</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>25882</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>66280</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>28741; 54796</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>16949; 36773</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>51959; 82240</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>84126</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>79935</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>164061</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>68534; 104136</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>63815; 98870</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>141120; 190752</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>59718</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>69199</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>128918</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>45625; 76034</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>54464; 87592</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>107104; 155260</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>341600</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>291979</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>633579</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>307296; 380854</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>257218; 324934</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>585446; 685114</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>